--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20039234-86D3-41FC-A49E-D9EADDD40C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4591AE-2308-45CC-9653-2DF6EAFD9801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>SlNo</t>
   </si>
@@ -132,6 +132,36 @@
   </si>
   <si>
     <t>Semester Examination</t>
+  </si>
+  <si>
+    <t>Java  Training</t>
+  </si>
+  <si>
+    <t>spring boot using exmples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring boot cocepts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camunda </t>
+  </si>
+  <si>
+    <t>watching previous class video doubt clarification</t>
+  </si>
+  <si>
+    <t>java Training</t>
+  </si>
+  <si>
+    <t>spring booth concepts</t>
+  </si>
+  <si>
+    <t>camunda</t>
+  </si>
+  <si>
+    <t>workflow concepts</t>
+  </si>
+  <si>
+    <t>Spring boot program with example</t>
   </si>
 </sst>
 </file>
@@ -633,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,53 +983,103 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44384</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="2">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44416</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4591AE-2308-45CC-9653-2DF6EAFD9801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7AAEB2-365F-43CF-A935-DA6887FEE2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>SlNo</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Spring boot program with example</t>
+  </si>
+  <si>
+    <t>Spring concepts,Hibernate</t>
+  </si>
+  <si>
+    <t>Camunda</t>
+  </si>
+  <si>
+    <t>Workflow concepts with Example</t>
   </si>
 </sst>
 </file>
@@ -663,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,25 +1091,47 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="2">
+        <v>8</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44386</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7AAEB2-365F-43CF-A935-DA6887FEE2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F38F56D-B9FD-42C5-B510-AA3BFDD26628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1135,9 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F38F56D-B9FD-42C5-B510-AA3BFDD26628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB834B2-42D7-44FF-83A7-9C0B15511554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>SlNo</t>
   </si>
@@ -171,13 +171,109 @@
   </si>
   <si>
     <t>Workflow concepts with Example</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>spring revision</t>
+  </si>
+  <si>
+    <t>discussed with teams</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creating new demo </t>
+  </si>
+  <si>
+    <t>interview question</t>
+  </si>
+  <si>
+    <t>learned  java,camunda interview question</t>
+  </si>
+  <si>
+    <t>discussed with teams creating new demo</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core java topic </t>
+  </si>
+  <si>
+    <t>previous topic revision</t>
+  </si>
+  <si>
+    <t>vms</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>semester Examination</t>
+  </si>
+  <si>
+    <t>vms project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learned vms </t>
+  </si>
+  <si>
+    <t>learned vms concepts</t>
+  </si>
+  <si>
+    <t>learned vms and interview question preparation</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>connecting database and basic concepts</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>team meeting</t>
+  </si>
+  <si>
+    <t>learned new demo</t>
+  </si>
+  <si>
+    <t>DMN</t>
+  </si>
+  <si>
+    <t>DMN basic cocepts and workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HTTP and RESTAPI</t>
+  </si>
+  <si>
+    <t>Discussed about http and restapi concepts,springboot</t>
+  </si>
+  <si>
+    <t>discussed withb teams and workout</t>
+  </si>
+  <si>
+    <t>postgress for favourite recipes web application using spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMN workflow Installation and Working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion with java interview Questions and core java basic concepts </t>
+  </si>
+  <si>
+    <t>java concepts,interview questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +293,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -390,6 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,15 +776,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" customWidth="1"/>
+    <col min="5" max="5" width="48.44140625" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1039,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="10">
-        <v>44416</v>
+        <v>44385</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>42</v>
@@ -1134,160 +1238,356 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="1">
+      <c r="B34" s="2">
+        <v>9</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44387</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
         <v>10</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="C35" s="10">
+        <v>44389</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="2">
+        <v>11</v>
+      </c>
+      <c r="C37" s="10">
+        <v>44390</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="2">
+        <v>12</v>
+      </c>
+      <c r="C38" s="10">
+        <v>44391</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="B39" s="2">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10">
+        <v>44392</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="2">
+        <v>14</v>
+      </c>
+      <c r="C40" s="10">
+        <v>44393</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="B41" s="2">
+        <v>15</v>
+      </c>
+      <c r="C41" s="10">
+        <v>44394</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="B42" s="2">
+        <v>16</v>
+      </c>
+      <c r="C42" s="10">
+        <v>44396</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="B43" s="2">
+        <v>17</v>
+      </c>
+      <c r="C43" s="10">
+        <v>44397</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="B45" s="2">
+        <v>18</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44398</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="B46" s="2">
+        <v>19</v>
+      </c>
+      <c r="C46" s="10">
+        <v>44399</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="2">
+        <v>20</v>
+      </c>
+      <c r="C47" s="10">
+        <v>44400</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="B48" s="2">
+        <v>21</v>
+      </c>
+      <c r="C48" s="10">
+        <v>44403</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="D49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="B50" s="2">
+        <v>22</v>
+      </c>
+      <c r="C50" s="10">
+        <v>44404</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="D51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="B52" s="2">
+        <v>23</v>
+      </c>
+      <c r="C52" s="10">
+        <v>44405</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="B53" s="2">
+        <v>24</v>
+      </c>
+      <c r="C53" s="10">
+        <v>44406</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="10"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="E54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="B55" s="2">
+        <v>25</v>
+      </c>
+      <c r="C55" s="10">
+        <v>44407</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_July_2021.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB834B2-42D7-44FF-83A7-9C0B15511554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D779EB-4E26-4BD4-BD03-83DBE9326A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,6 +484,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,7 +494,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,13 +790,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -1582,7 +1582,7 @@
       <c r="D55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>80</v>
       </c>
       <c r="F55" s="3">
@@ -2246,13 +2246,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
